--- a/Finflux Automation Excels/Client/4922-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-AddTo1stInstallment-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4922-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-AddTo1stInstallment-MakeRepayment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Principal</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>Interest</t>
@@ -167,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +185,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -241,23 +246,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +598,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,382 +610,379 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="9">
+        <v>41897</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
+        <v>300</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
+        <v>300</v>
+      </c>
+      <c r="L2" s="6">
+        <v>300</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9">
+        <v>41944</v>
+      </c>
+      <c r="D3" s="9">
+        <v>41959</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11">
+        <v>1627.83</v>
+      </c>
+      <c r="G3" s="11">
+        <v>8372.17</v>
+      </c>
+      <c r="H3" s="6">
+        <v>153.33000000000001</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1781.16</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1781.16</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1500</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="6">
+        <v>281.16000000000003</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9">
+        <v>41974</v>
+      </c>
+      <c r="D4" s="9">
+        <v>41974</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11">
+        <v>1641.28</v>
+      </c>
+      <c r="G4" s="11">
+        <v>6730.89</v>
+      </c>
+      <c r="H4" s="6">
+        <v>83.72</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1725</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1725</v>
+      </c>
+      <c r="M4" s="11">
+        <v>1218.8399999999999</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
         <v>31</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10">
-        <v>41897</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8">
-        <v>300</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8">
-        <v>300</v>
-      </c>
-      <c r="L2" s="8">
-        <v>300</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>47</v>
-      </c>
-      <c r="C3" s="10">
-        <v>41944</v>
-      </c>
-      <c r="D3" s="10">
-        <v>41959</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7">
-        <v>1625</v>
-      </c>
-      <c r="G3" s="7">
-        <v>8375</v>
-      </c>
-      <c r="H3" s="8">
-        <v>153.33000000000001</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>1778.33</v>
-      </c>
-      <c r="L3" s="11">
-        <v>1778.33</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1500</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8">
-        <v>278.33</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>30</v>
-      </c>
-      <c r="C4" s="10">
-        <v>41974</v>
-      </c>
-      <c r="D4" s="10">
-        <v>41974</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="11">
-        <v>1641.25</v>
-      </c>
-      <c r="G4" s="11">
-        <v>6733.75</v>
-      </c>
-      <c r="H4" s="8">
-        <v>83.75</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="C5" s="9">
+        <v>42005</v>
+      </c>
+      <c r="D5" s="9">
+        <v>41988</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11">
+        <v>1657.69</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5073.2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>67.31</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
         <v>1725</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L5" s="8">
         <v>1725</v>
       </c>
-      <c r="M4" s="11">
-        <v>1221.67</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="M5" s="8">
+        <v>1725</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
         <v>31</v>
       </c>
-      <c r="C5" s="10">
-        <v>42005</v>
-      </c>
-      <c r="D5" s="10">
-        <v>41988</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="11">
-        <v>1657.66</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5076.09</v>
-      </c>
-      <c r="H5" s="8">
-        <v>67.34</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="C6" s="9">
+        <v>42036</v>
+      </c>
+      <c r="D6" s="9">
+        <v>42036</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11">
+        <v>1674.27</v>
+      </c>
+      <c r="G6" s="11">
+        <v>3398.93</v>
+      </c>
+      <c r="H6" s="6">
+        <v>50.73</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
         <v>1725</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L6" s="8">
         <v>1725</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M6" s="6">
+        <v>868.84</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42064</v>
+      </c>
+      <c r="D7" s="9">
+        <v>42078</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11">
+        <v>1691.01</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1707.92</v>
+      </c>
+      <c r="H7" s="6">
+        <v>33.99</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
         <v>1725</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="L7" s="11">
+        <v>1691.01</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1043.8399999999999</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="6">
+        <v>647.16999999999996</v>
+      </c>
+      <c r="P7" s="6">
+        <v>33.99</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
         <v>31</v>
       </c>
-      <c r="C6" s="10">
-        <v>42036</v>
-      </c>
-      <c r="D6" s="10">
-        <v>42036</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="11">
-        <v>1674.24</v>
-      </c>
-      <c r="G6" s="11">
-        <v>3401.85</v>
-      </c>
-      <c r="H6" s="8">
-        <v>50.76</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="C8" s="9">
+        <v>42095</v>
+      </c>
+      <c r="D8" s="9">
+        <v>42095</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11">
+        <v>1707.92</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
         <v>1725</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L8" s="8">
         <v>1725</v>
       </c>
-      <c r="M6" s="8">
-        <v>871.67</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10">
-        <v>42064</v>
-      </c>
-      <c r="D7" s="10">
-        <v>42078</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="11">
-        <v>1690.98</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1710.87</v>
-      </c>
-      <c r="H7" s="8">
-        <v>34.020000000000003</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1725</v>
-      </c>
-      <c r="L7" s="11">
-        <v>1690.98</v>
-      </c>
-      <c r="M7" s="11">
-        <v>1046.67</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="8">
-        <v>644.30999999999995</v>
-      </c>
-      <c r="P7" s="8">
-        <v>34.020000000000003</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
-        <v>31</v>
-      </c>
-      <c r="C8" s="10">
-        <v>42095</v>
-      </c>
-      <c r="D8" s="10">
-        <v>42095</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="11">
-        <v>1710.87</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>14.13</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1725</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1725</v>
-      </c>
       <c r="M8" s="11">
-        <v>1255.69</v>
+        <v>1252.83</v>
       </c>
       <c r="N8" s="11"/>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -991,10 +993,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,421 +1009,447 @@
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>69</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9">
+        <v>42095</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10">
-        <v>42095</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="6">
+        <v>472.17</v>
+      </c>
+      <c r="F2" s="6">
+        <v>472.17</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>68</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9">
+        <v>42078</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1900</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1882.92</v>
+      </c>
+      <c r="G3" s="6">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>472.17</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>67</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="9">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1900</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1900</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2355.09</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>66</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9">
+        <v>42021</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="8">
-        <v>469.31</v>
-      </c>
-      <c r="F2" s="8">
-        <v>469.31</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="E5" s="6">
+        <v>33.99</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>4255.09</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>65</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9">
+        <v>42019</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10">
-        <v>42078</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1900</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1885.87</v>
-      </c>
-      <c r="G3" s="8">
-        <v>14.13</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>469.31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="E6" s="6">
+        <v>700</v>
+      </c>
+      <c r="F6" s="6">
+        <v>700</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>4255.09</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>64</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9">
+        <v>41988</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="10">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1900</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1900</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2355.1799999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="E7" s="6">
+        <v>700</v>
+      </c>
+      <c r="F7" s="6">
+        <v>649.27</v>
+      </c>
+      <c r="G7" s="6">
+        <v>50.73</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>4955.09</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>63</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="9">
+        <v>41974</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="10">
-        <v>42021</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="8">
-        <v>34.020000000000003</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>4255.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>18</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="E8" s="8">
+        <v>1700</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1632.69</v>
+      </c>
+      <c r="G8" s="6">
+        <v>67.31</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>5604.36</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>62</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9">
+        <v>41959</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="10">
-        <v>42019</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="8">
-        <v>700</v>
-      </c>
-      <c r="F6" s="8">
-        <v>700</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>4255.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="E9" s="8">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1416.28</v>
+      </c>
+      <c r="G9" s="6">
+        <v>83.72</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>7237.05</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="9">
+        <v>41944</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="10">
-        <v>41988</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8">
-        <v>700</v>
-      </c>
-      <c r="F7" s="8">
-        <v>649.24</v>
-      </c>
-      <c r="G7" s="8">
-        <v>50.76</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>4955.18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="E10" s="11">
+        <v>1781.16</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1627.83</v>
+      </c>
+      <c r="G10" s="6">
+        <v>153.33000000000001</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>8372.17</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>61</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9">
+        <v>41928</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="10">
-        <v>41974</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1700</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1632.66</v>
-      </c>
-      <c r="G8" s="8">
-        <v>67.34</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>5604.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="10">
-        <v>41959</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1500</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1416.25</v>
-      </c>
-      <c r="G9" s="8">
-        <v>83.75</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>7237.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="10">
-        <v>41944</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1778.33</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1625</v>
-      </c>
-      <c r="G10" s="8">
-        <v>153.33000000000001</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>8375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="10">
-        <v>41928</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>1500</v>
       </c>
       <c r="F11" s="11">
         <v>1346.67</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>153.33000000000001</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
         <v>0</v>
       </c>
       <c r="J11" s="11">
         <v>8653.33</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>59</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9">
         <v>41897</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6">
+        <v>300</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>300</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>58</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9">
+        <v>41897</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="8">
-        <v>300</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>300</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="E13" s="8">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="10">
-        <v>41897</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
         <v>10000</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>10000</v>
-      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1773,113 +1801,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>10000</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>10000</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>403.33</v>
-      </c>
-      <c r="B3" s="8">
-        <v>369.31</v>
-      </c>
-      <c r="C3" s="8">
-        <v>34.020000000000003</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="A3" s="6">
+        <v>406.16</v>
+      </c>
+      <c r="B3" s="6">
+        <v>372.17</v>
+      </c>
+      <c r="C3" s="6">
+        <v>33.99</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>300</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>300</v>
       </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
         <v>0</v>
       </c>
     </row>
